--- a/biology/Zoologie/Conus_thomae/Conus_thomae.xlsx
+++ b/biology/Zoologie/Conus_thomae/Conus_thomae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus thomae est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la coquille varie entre 55 mm et 97 mm. La coquille étroite est blanchâtre, entourée de nombreuses teintes de taches carrées et de tirets de brun-orange, formant souvent deux ou trois larges bandes par leur rapprochement[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la coquille varie entre 55 mm et 97 mm. La coquille étroite est blanchâtre, entourée de nombreuses teintes de taches carrées et de tirets de brun-orange, formant souvent deux ou trois larges bandes par leur rapprochement. 
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente dans l'Océan Indien et au large des Moluques et des Philippines.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans la partie sud des Philippines et le long des îles Moluques et est commune dans les eaux profondes. Il n'y a pas de menaces majeures connues pour cette espèce. Elle est classée dans la catégorie préoccupation mineure[2].
 </t>
         </is>
       </c>
@@ -573,15 +587,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce est présente dans la partie sud des Philippines et le long des îles Moluques et est commune dans les eaux profondes. Il n'y a pas de menaces majeures connues pour cette espèce. Elle est classée dans la catégorie préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_thomae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_thomae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus thomae a été décrite pour la première fois en 1791 par le naturaliste et chimiste allemand Johann Friedrich Gmelin dans « Systema Naturae Linneaeus (ed) Ed 13 »[3],[4].
-Synonymes
-Conus (Darioconus) thomae Gmelin, 1791 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus thomae a été décrite pour la première fois en 1791 par le naturaliste et chimiste allemand Johann Friedrich Gmelin dans « Systema Naturae Linneaeus (ed) Ed 13 »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_thomae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_thomae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Darioconus) thomae Gmelin, 1791 · appellation alternative
 Conus jousseaumei Couturier, 1891 · non accepté
 Conus omaicus Hwass, 1792 · non accepté
 Darioconus magoides (Melvill, 1900) · non accepté
